--- a/Documenti/Marco Catteneo/MRESim/logs/analisi metodi.xlsx
+++ b/Documenti/Marco Catteneo/MRESim/logs/analisi metodi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tesi\Documenti\Marco Catteneo\MRESim\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378D75CF-8CB0-4868-8AB1-2BD057BCF6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0605B-26F6-4AE1-BC2D-CCE3E7278A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="450" windowWidth="10245" windowHeight="11070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -8243,11 +8243,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4'!$A$44</c:f>
+              <c:f>'4'!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PR</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8263,55 +8263,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'4'!$B$43:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>PB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>Originale PR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4'!$B$44:$G$44</c:f>
+              <c:f>'4'!$B$44:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,11 +8314,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4'!$A$45</c:f>
+              <c:f>'4'!$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PB</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8347,55 +8334,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'4'!$B$43:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>PB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>Originale PR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4'!$B$45:$G$45</c:f>
+              <c:f>'4'!$C$44:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>77.5</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8411,11 +8385,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4'!$A$46</c:f>
+              <c:f>'4'!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Originale PR</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8431,55 +8405,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'4'!$B$43:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>PB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>Originale PR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4'!$B$46:$G$46</c:f>
+              <c:f>'4'!$D$44:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>51.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8495,11 +8456,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4'!$A$47</c:f>
+              <c:f>'4'!$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Originale PB</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8515,55 +8476,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'4'!$B$43:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>PB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>Originale PR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4'!$B$47:$G$47</c:f>
+              <c:f>'4'!$E$44:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>63.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8571,6 +8519,148 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5E83-4311-8F5D-23FB7AE22B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Originale PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$F$44:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F3-4C6B-B381-57C92CFD4578}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4'!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4'!$A$44:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Originale PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Originale PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$G$44:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4F3-4C6B-B381-57C92CFD4578}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -43484,7 +43574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -44841,7 +44931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD08699-08EC-474A-A813-C5CB369947F0}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -46194,8 +46284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813DE227-C199-4F20-A287-6987BA3871B5}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47542,8 +47632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B621CE0A-1E97-4102-A0B5-8A862E80FCEC}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48892,7 +48982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49844FA-DEEB-4E16-BFB0-56ECDB31C0D8}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>

--- a/Documenti/Marco Catteneo/MRESim/logs/analisi metodi.xlsx
+++ b/Documenti/Marco Catteneo/MRESim/logs/analisi metodi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tesi\Documenti\Marco Catteneo\MRESim\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0605B-26F6-4AE1-BC2D-CCE3E7278A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15327F74-8CDD-42F3-98AF-3408D546D764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="450" windowWidth="10245" windowHeight="11070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="10">
   <si>
     <t>PR</t>
   </si>
@@ -442,16 +442,16 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>113.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.5</c:v>
+                  <c:v>123.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,22 +520,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>118.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,10 +1682,10 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>138.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>174</c:v>
@@ -1766,16 +1766,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.5</c:v>
+                  <c:v>137.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.5</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>141.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>133.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,16 +2917,16 @@
                   <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,16 +3001,16 @@
                   <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>101.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.5</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.5</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,16 +4147,16 @@
                   <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,16 +4231,16 @@
                   <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>101.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.5</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.5</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5385,16 +5385,16 @@
                   <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,16 +5469,16 @@
                   <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>101.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.5</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.5</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6619,22 +6619,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.5</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.5</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6709,16 +6709,16 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.5</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8295,7 +8295,7 @@
                   <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.5</c:v>
@@ -8437,10 +8437,10 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8508,10 +8508,10 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.5</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8579,10 +8579,10 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8650,10 +8650,10 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.5</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.5</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9789,22 +9789,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.5</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.5</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9879,16 +9879,16 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.5</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11028,13 +11028,13 @@
                   <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.5</c:v>
+                  <c:v>149.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>134.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>137</c:v>
@@ -11112,16 +11112,16 @@
                   <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>248.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.5</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.5</c:v>
+                  <c:v>171.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.5</c:v>
+                  <c:v>136.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12258,13 +12258,13 @@
                   <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.5</c:v>
+                  <c:v>149.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>134.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>137</c:v>
@@ -12342,16 +12342,16 @@
                   <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>248.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.5</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.5</c:v>
+                  <c:v>171.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.5</c:v>
+                  <c:v>136.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13488,13 +13488,13 @@
                   <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.5</c:v>
+                  <c:v>149.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>134.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>137</c:v>
@@ -13572,16 +13572,16 @@
                   <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>248.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.5</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.5</c:v>
+                  <c:v>171.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.5</c:v>
+                  <c:v>136.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14103,16 +14103,16 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>113.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.5</c:v>
+                  <c:v>123.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14181,22 +14181,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>118.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15333,16 +15333,16 @@
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.5</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.5</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15417,16 +15417,16 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.5</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>74.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16563,16 +16563,16 @@
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.5</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.5</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16647,16 +16647,16 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.5</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>74.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17793,16 +17793,16 @@
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.5</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.5</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17877,16 +17877,16 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.5</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>74.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19643,16 +19643,16 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>113.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.5</c:v>
+                  <c:v>123.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19721,22 +19721,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>118.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20889,10 +20889,10 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>138.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>174</c:v>
@@ -20973,16 +20973,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.5</c:v>
+                  <c:v>137.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.5</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>141.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>133.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22128,10 +22128,10 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>138.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>174</c:v>
@@ -22212,16 +22212,16 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.5</c:v>
+                  <c:v>137.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.5</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>141.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>133.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42133,14 +42133,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>116261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43574,8 +43574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43751,7 +43751,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C6">
         <v>125.5</v>
@@ -43941,19 +43941,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>115.9</v>
       </c>
       <c r="C12">
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>114</v>
+        <v>118.1</v>
       </c>
       <c r="G12">
-        <v>99</v>
+        <v>113.1</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -44131,19 +44131,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>128.5</v>
+        <v>123.7</v>
       </c>
       <c r="C18">
-        <v>121.5</v>
+        <v>123.4</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="G18">
-        <v>112</v>
+        <v>115.9</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
@@ -44333,19 +44333,19 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>99</v>
+        <v>113.1</v>
       </c>
       <c r="F24">
         <f>$C18</f>
-        <v>121.5</v>
+        <v>123.4</v>
       </c>
       <c r="G24">
         <f>$G18</f>
-        <v>112</v>
+        <v>115.9</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -44381,7 +44381,7 @@
       </c>
       <c r="B25">
         <f>$B6</f>
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C25">
         <f>$F6</f>
@@ -44389,19 +44389,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>101</v>
+        <v>115.9</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>114</v>
+        <v>118.1</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>128.5</v>
+        <v>123.7</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -44600,16 +44600,16 @@
         <v>112.5</v>
       </c>
       <c r="D46">
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="E46">
-        <v>99</v>
+        <v>113.1</v>
       </c>
       <c r="F46">
-        <v>121.5</v>
+        <v>123.4</v>
       </c>
       <c r="G46">
-        <v>112</v>
+        <v>115.9</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -44638,22 +44638,22 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C47">
         <v>109.5</v>
       </c>
       <c r="D47">
-        <v>101</v>
+        <v>115.9</v>
       </c>
       <c r="E47">
-        <v>114</v>
+        <v>118.1</v>
       </c>
       <c r="F47">
-        <v>128.5</v>
+        <v>123.7</v>
       </c>
       <c r="G47">
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -44843,16 +44843,16 @@
         <v>112.5</v>
       </c>
       <c r="D68">
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="E68">
-        <v>99</v>
+        <v>113.1</v>
       </c>
       <c r="F68">
-        <v>121.5</v>
+        <v>123.4</v>
       </c>
       <c r="G68">
-        <v>112</v>
+        <v>115.9</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -44881,22 +44881,22 @@
         <v>9</v>
       </c>
       <c r="B69">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C69">
         <v>109.5</v>
       </c>
       <c r="D69">
-        <v>101</v>
+        <v>115.9</v>
       </c>
       <c r="E69">
-        <v>114</v>
+        <v>118.1</v>
       </c>
       <c r="F69">
-        <v>128.5</v>
+        <v>123.7</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
@@ -44931,8 +44931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD08699-08EC-474A-A813-C5CB369947F0}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45298,19 +45298,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>137.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="C12">
-        <v>142</v>
+        <v>133.9</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="G12">
-        <v>155</v>
+        <v>138.4</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -45488,7 +45488,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="C18">
         <v>174</v>
@@ -45497,7 +45497,7 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <v>133</v>
+        <v>133.6</v>
       </c>
       <c r="G18">
         <v>146</v>
@@ -45690,11 +45690,11 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>142</v>
+        <v>133.9</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>155</v>
+        <v>138.4</v>
       </c>
       <c r="F24">
         <f>$C18</f>
@@ -45746,19 +45746,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>137.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>133</v>
+        <v>133.6</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -45954,10 +45954,10 @@
         <v>149</v>
       </c>
       <c r="D46">
-        <v>142</v>
+        <v>133.9</v>
       </c>
       <c r="E46">
-        <v>155</v>
+        <v>138.4</v>
       </c>
       <c r="F46">
         <v>174</v>
@@ -45998,16 +45998,16 @@
         <v>143</v>
       </c>
       <c r="D47">
-        <v>137.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E47">
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="F47">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="G47">
-        <v>133</v>
+        <v>133.6</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -46197,10 +46197,10 @@
         <v>149</v>
       </c>
       <c r="D68">
-        <v>142</v>
+        <v>133.9</v>
       </c>
       <c r="E68">
-        <v>155</v>
+        <v>138.4</v>
       </c>
       <c r="F68">
         <v>174</v>
@@ -46241,16 +46241,16 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>137.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E69">
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="F69">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="G69">
-        <v>133</v>
+        <v>133.6</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
@@ -46284,8 +46284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813DE227-C199-4F20-A287-6987BA3871B5}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46651,19 +46651,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>101.6</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>85.4</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>98</v>
+        <v>81.2</v>
       </c>
       <c r="G12">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -46835,19 +46835,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>95.5</v>
+        <v>86.3</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
@@ -47037,19 +47037,19 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>94</v>
+        <v>85.4</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <f>$C18</f>
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="G24">
         <f>$G18</f>
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -47093,19 +47093,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>98</v>
+        <v>101.6</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>98</v>
+        <v>81.2</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>95.5</v>
+        <v>86.3</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -47301,16 +47301,16 @@
         <v>91.5</v>
       </c>
       <c r="D46">
-        <v>94</v>
+        <v>85.4</v>
       </c>
       <c r="E46">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46">
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="G46">
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -47345,16 +47345,16 @@
         <v>103.5</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>101.6</v>
       </c>
       <c r="E47">
-        <v>98</v>
+        <v>81.2</v>
       </c>
       <c r="F47">
-        <v>95.5</v>
+        <v>86.3</v>
       </c>
       <c r="G47">
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -47544,16 +47544,16 @@
         <v>91.5</v>
       </c>
       <c r="D68">
-        <v>94</v>
+        <v>85.4</v>
       </c>
       <c r="E68">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68">
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="G68">
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -47588,16 +47588,16 @@
         <v>103.5</v>
       </c>
       <c r="D69">
-        <v>98</v>
+        <v>101.6</v>
       </c>
       <c r="E69">
-        <v>98</v>
+        <v>81.2</v>
       </c>
       <c r="F69">
-        <v>95.5</v>
+        <v>86.3</v>
       </c>
       <c r="G69">
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
@@ -47632,8 +47632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B621CE0A-1E97-4102-A0B5-8A862E80FCEC}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47812,7 +47812,7 @@
         <v>63.5</v>
       </c>
       <c r="C6">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -47999,19 +47999,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>63.8</v>
       </c>
       <c r="C12">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="G12">
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -48189,19 +48189,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>61.4</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>59.5</v>
+        <v>64.8</v>
       </c>
       <c r="G18">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
@@ -48382,7 +48382,7 @@
       </c>
       <c r="B24">
         <f>$C6</f>
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="C24">
         <f>$G6</f>
@@ -48390,19 +48390,19 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="F24">
         <f>$C18</f>
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="G24">
         <f>$G18</f>
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -48446,19 +48446,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>61</v>
+        <v>63.8</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>63</v>
+        <v>61.4</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>59.5</v>
+        <v>64.8</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -48647,22 +48647,22 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="C46">
         <v>52</v>
       </c>
       <c r="D46">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="E46">
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="F46">
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="G46">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -48697,16 +48697,16 @@
         <v>56.5</v>
       </c>
       <c r="D47">
-        <v>61</v>
+        <v>63.8</v>
       </c>
       <c r="E47">
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="F47">
-        <v>63</v>
+        <v>61.4</v>
       </c>
       <c r="G47">
-        <v>59.5</v>
+        <v>64.8</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -48889,22 +48889,22 @@
         <v>8</v>
       </c>
       <c r="B68">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="C68">
         <v>52</v>
       </c>
       <c r="D68">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="E68">
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="F68">
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="G68">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -48939,16 +48939,16 @@
         <v>56.5</v>
       </c>
       <c r="D69">
-        <v>61</v>
+        <v>63.8</v>
       </c>
       <c r="E69">
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="F69">
-        <v>63</v>
+        <v>61.4</v>
       </c>
       <c r="G69">
-        <v>59.5</v>
+        <v>64.8</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
@@ -48982,8 +48982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49844FA-DEEB-4E16-BFB0-56ECDB31C0D8}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49349,19 +49349,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>179</v>
+        <v>248.9</v>
       </c>
       <c r="C12">
-        <v>145</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>155.5</v>
+        <v>161.9</v>
       </c>
       <c r="G12">
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -49539,16 +49539,16 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>181.5</v>
+        <v>171.1</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>134.1</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>134.5</v>
+        <v>136.9</v>
       </c>
       <c r="G18">
         <v>137</v>
@@ -49741,15 +49741,15 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>145</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="F24">
         <f>$C18</f>
-        <v>143</v>
+        <v>134.1</v>
       </c>
       <c r="G24">
         <f>$G18</f>
@@ -49797,19 +49797,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>179</v>
+        <v>248.9</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>155.5</v>
+        <v>161.9</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>181.5</v>
+        <v>171.1</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>134.5</v>
+        <v>136.9</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -50005,13 +50005,13 @@
         <v>152</v>
       </c>
       <c r="D46">
-        <v>145</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E46">
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="F46">
-        <v>143</v>
+        <v>134.1</v>
       </c>
       <c r="G46">
         <v>137</v>
@@ -50049,16 +50049,16 @@
         <v>181.5</v>
       </c>
       <c r="D47">
-        <v>179</v>
+        <v>248.9</v>
       </c>
       <c r="E47">
-        <v>155.5</v>
+        <v>161.9</v>
       </c>
       <c r="F47">
-        <v>181.5</v>
+        <v>171.1</v>
       </c>
       <c r="G47">
-        <v>134.5</v>
+        <v>136.9</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -50248,13 +50248,13 @@
         <v>152</v>
       </c>
       <c r="D68">
-        <v>145</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E68">
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="F68">
-        <v>143</v>
+        <v>134.1</v>
       </c>
       <c r="G68">
         <v>137</v>
@@ -50292,16 +50292,16 @@
         <v>181.5</v>
       </c>
       <c r="D69">
-        <v>179</v>
+        <v>248.9</v>
       </c>
       <c r="E69">
-        <v>155.5</v>
+        <v>161.9</v>
       </c>
       <c r="F69">
-        <v>181.5</v>
+        <v>171.1</v>
       </c>
       <c r="G69">
-        <v>134.5</v>
+        <v>136.9</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
@@ -50335,13 +50335,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7B7455-4EFC-4B6C-9D9F-21F7ABE7F950}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -50701,19 +50701,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>85.5</v>
+        <v>87.8</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>70.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -50891,19 +50891,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>74.5</v>
+        <v>78.3</v>
       </c>
       <c r="C18">
-        <v>71.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="G18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
@@ -51096,19 +51096,19 @@
       </c>
       <c r="D24">
         <f>$C12</f>
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="E24">
         <f>$G12</f>
-        <v>70.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F24">
         <f>$C18</f>
-        <v>71.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G24">
         <f>$G18</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -51152,19 +51152,19 @@
       </c>
       <c r="D25">
         <f>$B12</f>
-        <v>85.5</v>
+        <v>87.8</v>
       </c>
       <c r="E25">
         <f>$F12</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <f>$B18</f>
-        <v>74.5</v>
+        <v>78.3</v>
       </c>
       <c r="G25">
         <f>$F18</f>
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -51358,16 +51358,16 @@
         <v>72.5</v>
       </c>
       <c r="D46">
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="E46">
-        <v>70.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F46">
-        <v>71.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G46">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -51402,16 +51402,16 @@
         <v>89</v>
       </c>
       <c r="D47">
-        <v>85.5</v>
+        <v>87.8</v>
       </c>
       <c r="E47">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F47">
-        <v>74.5</v>
+        <v>78.3</v>
       </c>
       <c r="G47">
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
@@ -51599,16 +51599,16 @@
         <v>72.5</v>
       </c>
       <c r="D68">
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="E68">
-        <v>70.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F68">
-        <v>71.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G68">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -51643,16 +51643,16 @@
         <v>89</v>
       </c>
       <c r="D69">
-        <v>85.5</v>
+        <v>87.8</v>
       </c>
       <c r="E69">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69">
-        <v>74.5</v>
+        <v>78.3</v>
       </c>
       <c r="G69">
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
